--- a/Exp 5 Inventory.xlsx
+++ b/Exp 5 Inventory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Parth/Desktop/College/CSM/Practical/CSM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{6E7C0720-75F6-6544-BFD3-AE920F313C12}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{0CA5AAEA-F31C-6344-8473-BB3D8FF63AE9}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16180" xr2:uid="{1BA956B5-C05B-C944-A1AE-A1FFA8B1822A}"/>
   </bookViews>
@@ -420,8 +420,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E740FF2-BC2D-5C48-BE19-192FE30095AF}">
   <dimension ref="B4:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="125" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -582,7 +582,7 @@
         <v>0.98899999999999999</v>
       </c>
       <c r="D14">
-        <f t="shared" ref="D14:D40" si="1">IF(C14&lt;$D$5,$B$5,IF(C14&lt;$D$6,$B$6,IF(C14&lt;$D$7,$B$7,IF(C14&lt;$D$8,$B$8,$B$9))))</f>
+        <f t="shared" ref="D14:D37" si="1">IF(C14&lt;$D$5,$B$5,IF(C14&lt;$D$6,$B$6,IF(C14&lt;$D$7,$B$7,IF(C14&lt;$D$8,$B$8,$B$9))))</f>
         <v>4</v>
       </c>
       <c r="E14">
